--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="17200"/>
+    <workbookView windowWidth="26860" windowHeight="17200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 （副本）" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,27 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="2">
   <si>
-    <t>Name adsa2323232323</t>
+    <t>test_</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
+    <t>dsadsa</t>
   </si>
 </sst>
 </file>
@@ -61,42 +46,42 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="4"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="20"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -104,15 +89,15 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +105,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -128,89 +113,82 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="65"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,188 +201,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
   </fills>
@@ -516,154 +494,158 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,7 +698,240 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{2E3AC2FB-1FE3-7F2F-F249-14694041EAE0}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A27B0DC3-A03B-96A0-F249-146967003A0E}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,10 +947,48 @@
 </customStorage>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3105149" cy="1353378"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="899966872" name="图片 899966871"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3034030" y="4967605"/>
+          <a:ext cx="3104515" cy="1353185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,177 +996,111 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="等线 Light"/>
+        <a:ea typeface="等线 Light"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="等线"/>
+        <a:ea typeface="等线"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -943,195 +1130,339 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7307692307692" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="34.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.23214285714286" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
-      <c r="A1">
-        <v>1212</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="11:12">
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="10:15">
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="15:17">
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="15:17">
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="15:17">
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="10:17">
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="15:17">
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="15:17">
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="11:17">
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="15:17">
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="15:17">
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17">
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17">
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17">
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17">
+      <c r="G20">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17">
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17">
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17">
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="15:17">
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="15:17">
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="15:17">
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="15:17">
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7307692307692" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="34.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="4:4">
-      <c r="D10">
-        <v>2312</v>
+    <row r="25" spans="5:5">
+      <c r="E25">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="17200" activeTab="1"/>
+    <workbookView windowWidth="26860" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{2E3AC2FB-1FE3-7F2F-F249-14694041EAE0}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{37CB6C28-DD74-B216-DABC-19698F6B68DE}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -919,7 +919,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A27B0DC3-A03B-96A0-F249-146967003A0E}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{C46DCFE5-EE92-DA7C-DABC-1969762CE584}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -949,17 +949,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3105149" cy="1353378"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458470</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="899966872" name="图片 899966871"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -972,16 +977,20 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034030" y="4967605"/>
-          <a:ext cx="3104515" cy="1353185"/>
+          <a:off x="656590" y="2133600"/>
+          <a:ext cx="5054600" cy="2463800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1181,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23214285714286" defaultRowHeight="16.8"/>
@@ -1450,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
